--- a/Audio Files.xlsx
+++ b/Audio Files.xlsx
@@ -8,54 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laza9\OneDrive\Documents\raf\DU Projekat 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469086DA-D750-478C-83A4-003BFDAF97E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EE858F-AD34-485F-831B-04C4741962CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="7">
   <si>
     <t>file</t>
   </si>
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>/audio/audio1 (1).wav</t>
-  </si>
-  <si>
-    <t>/audio/audio1 (2).wav</t>
-  </si>
-  <si>
-    <t>/audio/audio1 (3).wav</t>
-  </si>
-  <si>
-    <t>/audio/audio1 (4).wav</t>
-  </si>
-  <si>
-    <t>/audio/audio1 (5).wav</t>
-  </si>
-  <si>
-    <t>/audio/audio2 (1).wav</t>
-  </si>
-  <si>
-    <t>/audio/audio2 (2).wav</t>
-  </si>
-  <si>
-    <t>/audio/audio2 (3).wav</t>
-  </si>
-  <si>
-    <t>/audio/audio2 (4).wav</t>
-  </si>
-  <si>
-    <t>/audio/audio2 (5).wav</t>
   </si>
   <si>
     <t>Tell me the meaning of</t>
@@ -65,6 +35,12 @@
   </si>
   <si>
     <t>What is the meaning of</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -331,10 +307,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -343,7 +319,7 @@
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -351,84 +327,319 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="str">
+        <f>CONCATENATE("/audio/audio1 (", ROW() - 1, ").wav")</f>
+        <v>/audio/audio1 (1).wav</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="str">
+        <f>CONCATENATE("/audio/audio1 (", ROW() - 1, ").wav")</f>
+        <v>/audio/audio1 (2).wav</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="str">
+        <f t="shared" ref="A4:A11" si="0">CONCATENATE("/audio/audio1 (", ROW() - 1, ").wav")</f>
+        <v>/audio/audio1 (3).wav</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/audio/audio1 (4).wav</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/audio/audio1 (5).wav</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/audio/audio1 (6).wav</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/audio/audio1 (7).wav</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/audio/audio1 (8).wav</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/audio/audio1 (9).wav</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/audio/audio1 (10).wav</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="str">
+        <f>CONCATENATE("/audio/audio1 (", ROW() - 1, ").wav")</f>
+        <v>/audio/audio1 (11).wav</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="str">
+        <f>CONCATENATE("/audio/audio1 (", ROW() - 1, ").wav")</f>
+        <v>/audio/audio1 (12).wav</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="str">
+        <f t="shared" ref="A14:A16" si="1">CONCATENATE("/audio/audio1 (", ROW() - 1, ").wav")</f>
+        <v>/audio/audio1 (13).wav</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/audio/audio1 (14).wav</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/audio/audio1 (15).wav</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="str">
+        <f>CONCATENATE("/audio/audio2 (", ROW() - 16, ").wav")</f>
+        <v>/audio/audio2 (1).wav</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="str">
+        <f t="shared" ref="A18:A31" si="2">CONCATENATE("/audio/audio2 (", ROW() - 16, ").wav")</f>
+        <v>/audio/audio2 (2).wav</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/audio/audio2 (3).wav</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/audio/audio2 (4).wav</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/audio/audio2 (5).wav</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/audio/audio2 (6).wav</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/audio/audio2 (7).wav</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/audio/audio2 (8).wav</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/audio/audio2 (9).wav</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/audio/audio2 (10).wav</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/audio/audio2 (11).wav</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/audio/audio2 (12).wav</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/audio/audio2 (13).wav</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/audio/audio2 (14).wav</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/audio/audio2 (15).wav</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="str">
+        <f>CONCATENATE("/audio/audio3 (", ROW() - 31, ").wav")</f>
+        <v>/audio/audio3 (1).wav</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="str">
+        <f t="shared" ref="A33:A36" si="3">CONCATENATE("/audio/audio3 (", ROW() - 31, ").wav")</f>
+        <v>/audio/audio3 (2).wav</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/audio/audio3 (3).wav</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/audio/audio3 (4).wav</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/audio/audio3 (5).wav</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Audio Files.xlsx
+++ b/Audio Files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laza9\OneDrive\Documents\raf\DU Projekat 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EE858F-AD34-485F-831B-04C4741962CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2BA55D-F997-4BFE-B54A-8224F6BF8E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
   <si>
     <t>file</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>What is the meaning of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -309,8 +303,8 @@
   </sheetPr>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="A32:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -598,49 +592,24 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="str">
-        <f>CONCATENATE("/audio/audio3 (", ROW() - 31, ").wav")</f>
-        <v>/audio/audio3 (1).wav</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="str">
-        <f t="shared" ref="A33:A36" si="3">CONCATENATE("/audio/audio3 (", ROW() - 31, ").wav")</f>
-        <v>/audio/audio3 (2).wav</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>/audio/audio3 (3).wav</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>/audio/audio3 (4).wav</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>/audio/audio3 (5).wav</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Audio Files.xlsx
+++ b/Audio Files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laza9\OneDrive\Documents\raf\DU Projekat 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2BA55D-F997-4BFE-B54A-8224F6BF8E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4926EB-3719-4330-ABDC-6CDE8DE2C60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>file</t>
   </si>
@@ -35,6 +35,27 @@
   </si>
   <si>
     <t>What is the meaning of</t>
+  </si>
+  <si>
+    <t>Im happy that I have done my homework quickly</t>
+  </si>
+  <si>
+    <t>It was a sad day today because I lost my homework</t>
+  </si>
+  <si>
+    <t>Ive lost my keys</t>
+  </si>
+  <si>
+    <t>This project is a big deal to me</t>
+  </si>
+  <si>
+    <t>Together its so much fun</t>
+  </si>
+  <si>
+    <t>You cant do that</t>
+  </si>
+  <si>
+    <t>Today was a good day</t>
   </si>
 </sst>
 </file>
@@ -301,16 +322,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="A32:B36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -467,7 +488,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
-        <f t="shared" ref="A18:A31" si="2">CONCATENATE("/audio/audio2 (", ROW() - 16, ").wav")</f>
+        <f t="shared" ref="A18:A32" si="2">CONCATENATE("/audio/audio2 (", ROW() - 16, ").wav")</f>
         <v>/audio/audio2 (2).wav</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -592,24 +613,67 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="1" t="str">
+        <f>CONCATENATE("/audio/audio3 (", ROW() - 31, ").wav")</f>
+        <v>/audio/audio3 (1).wav</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="1" t="str">
+        <f t="shared" ref="A33:A38" si="3">CONCATENATE("/audio/audio3 (", ROW() - 31, ").wav")</f>
+        <v>/audio/audio3 (2).wav</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/audio/audio3 (3).wav</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/audio/audio3 (4).wav</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/audio/audio3 (5).wav</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/audio/audio3 (6).wav</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/audio/audio3 (7).wav</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Audio Files.xlsx
+++ b/Audio Files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laza9\OneDrive\Documents\raf\DU Projekat 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2BA55D-F997-4BFE-B54A-8224F6BF8E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64CF086-D0FA-42CA-8BDF-D5F0900B40E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>file</t>
   </si>
@@ -35,6 +35,42 @@
   </si>
   <si>
     <t>What is the meaning of</t>
+  </si>
+  <si>
+    <t>Im happy that I have done my homework quickly</t>
+  </si>
+  <si>
+    <t>It was a sad day today because I lost my homework</t>
+  </si>
+  <si>
+    <t>Ive lost my keys</t>
+  </si>
+  <si>
+    <t>This project is a big deal to me</t>
+  </si>
+  <si>
+    <t>Together its so much fun</t>
+  </si>
+  <si>
+    <t>You cant do that</t>
+  </si>
+  <si>
+    <t>Today was a good day</t>
+  </si>
+  <si>
+    <t>Tell me the meaning of today was a nice day</t>
+  </si>
+  <si>
+    <t>Whats the meaning of im so happy and excited for my class today</t>
+  </si>
+  <si>
+    <t>Tell me the meaning of im having a bad day</t>
+  </si>
+  <si>
+    <t>Whats the meaning of how are you today</t>
+  </si>
+  <si>
+    <t>Can you tell me the meaning of im having a bad day today</t>
   </si>
 </sst>
 </file>
@@ -301,16 +337,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="A32:B36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -592,24 +628,112 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="1" t="str">
+        <f>CONCATENATE("/audio/audio3 (", ROW() - 31, ").wav")</f>
+        <v>/audio/audio3 (1).wav</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="1" t="str">
+        <f t="shared" ref="A33:A42" si="3">CONCATENATE("/audio/audio3 (", ROW() - 31, ").wav")</f>
+        <v>/audio/audio3 (2).wav</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/audio/audio3 (3).wav</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/audio/audio3 (4).wav</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/audio/audio3 (5).wav</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/audio/audio3 (6).wav</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/audio/audio3 (7).wav</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="str">
+        <f>CONCATENATE("/audio/audio4 (", ROW() - 38, ").wav")</f>
+        <v>/audio/audio4 (1).wav</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="str">
+        <f t="shared" ref="A40:A42" si="4">CONCATENATE("/audio/audio4 (", ROW() - 38, ").wav")</f>
+        <v>/audio/audio4 (2).wav</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/audio/audio4 (3).wav</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/audio/audio4 (4).wav</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="str">
+        <f>CONCATENATE("/audio/audio4 (", ROW() - 38, ").wav")</f>
+        <v>/audio/audio4 (5).wav</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Audio Files.xlsx
+++ b/Audio Files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laza9\OneDrive\Documents\raf\DU Projekat 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4926EB-3719-4330-ABDC-6CDE8DE2C60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64CF086-D0FA-42CA-8BDF-D5F0900B40E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>file</t>
   </si>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t>Today was a good day</t>
+  </si>
+  <si>
+    <t>Tell me the meaning of today was a nice day</t>
+  </si>
+  <si>
+    <t>Whats the meaning of im so happy and excited for my class today</t>
+  </si>
+  <si>
+    <t>Tell me the meaning of im having a bad day</t>
+  </si>
+  <si>
+    <t>Whats the meaning of how are you today</t>
+  </si>
+  <si>
+    <t>Can you tell me the meaning of im having a bad day today</t>
   </si>
 </sst>
 </file>
@@ -322,16 +337,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -488,7 +503,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
-        <f t="shared" ref="A18:A32" si="2">CONCATENATE("/audio/audio2 (", ROW() - 16, ").wav")</f>
+        <f t="shared" ref="A18:A31" si="2">CONCATENATE("/audio/audio2 (", ROW() - 16, ").wav")</f>
         <v>/audio/audio2 (2).wav</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -623,7 +638,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
-        <f t="shared" ref="A33:A38" si="3">CONCATENATE("/audio/audio3 (", ROW() - 31, ").wav")</f>
+        <f t="shared" ref="A33:A42" si="3">CONCATENATE("/audio/audio3 (", ROW() - 31, ").wav")</f>
         <v>/audio/audio3 (2).wav</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -673,6 +688,51 @@
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="str">
+        <f>CONCATENATE("/audio/audio4 (", ROW() - 38, ").wav")</f>
+        <v>/audio/audio4 (1).wav</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="str">
+        <f t="shared" ref="A40:A42" si="4">CONCATENATE("/audio/audio4 (", ROW() - 38, ").wav")</f>
+        <v>/audio/audio4 (2).wav</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/audio/audio4 (3).wav</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/audio/audio4 (4).wav</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="str">
+        <f>CONCATENATE("/audio/audio4 (", ROW() - 38, ").wav")</f>
+        <v>/audio/audio4 (5).wav</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Audio Files.xlsx
+++ b/Audio Files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laza9\OneDrive\Documents\raf\DU Projekat 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64CF086-D0FA-42CA-8BDF-D5F0900B40E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D28477-33EB-496B-B007-ED2A5D7D54BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>file</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Whats the meaning of how are you today</t>
-  </si>
-  <si>
-    <t>Can you tell me the meaning of im having a bad day today</t>
   </si>
 </sst>
 </file>
@@ -340,7 +337,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="A43" sqref="A43:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -638,7 +635,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
-        <f t="shared" ref="A33:A42" si="3">CONCATENATE("/audio/audio3 (", ROW() - 31, ").wav")</f>
+        <f t="shared" ref="A33:A38" si="3">CONCATENATE("/audio/audio3 (", ROW() - 31, ").wav")</f>
         <v>/audio/audio3 (2).wav</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -727,13 +724,8 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="str">
-        <f>CONCATENATE("/audio/audio4 (", ROW() - 38, ").wav")</f>
-        <v>/audio/audio4 (5).wav</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Audio Files.xlsx
+++ b/Audio Files.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laza9\OneDrive\Documents\raf\DU Projekat 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laza9\OneDrive\Documents\GitHub\DU_Projekat2_AudioFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D28477-33EB-496B-B007-ED2A5D7D54BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D3C804-A4FA-4728-881F-1DC319B2A8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>file</t>
   </si>
@@ -56,18 +56,6 @@
   </si>
   <si>
     <t>Today was a good day</t>
-  </si>
-  <si>
-    <t>Tell me the meaning of today was a nice day</t>
-  </si>
-  <si>
-    <t>Whats the meaning of im so happy and excited for my class today</t>
-  </si>
-  <si>
-    <t>Tell me the meaning of im having a bad day</t>
-  </si>
-  <si>
-    <t>Whats the meaning of how are you today</t>
   </si>
 </sst>
 </file>
@@ -337,7 +325,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:B43"/>
+      <selection activeCell="B42" sqref="A39:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -688,40 +676,20 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="str">
-        <f>CONCATENATE("/audio/audio4 (", ROW() - 38, ").wav")</f>
-        <v>/audio/audio4 (1).wav</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="str">
-        <f t="shared" ref="A40:A42" si="4">CONCATENATE("/audio/audio4 (", ROW() - 38, ").wav")</f>
-        <v>/audio/audio4 (2).wav</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>/audio/audio4 (3).wav</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>/audio/audio4 (4).wav</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>

--- a/Audio Files.xlsx
+++ b/Audio Files.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laza9\OneDrive\Documents\GitHub\DU_Projekat2_AudioFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laza9\OneDrive\Documents\raf\DU Projekat 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D3C804-A4FA-4728-881F-1DC319B2A8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F044E7-FF2C-4AC7-AA7F-3080D5D465A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>file</t>
   </si>
@@ -28,34 +28,16 @@
     <t>text</t>
   </si>
   <si>
-    <t>Tell me the meaning of</t>
+    <t>meaning of today was a good day</t>
   </si>
   <si>
-    <t>Whats the meaning of</t>
+    <t>meaning of im having a bad day</t>
   </si>
   <si>
-    <t>What is the meaning of</t>
+    <t>tell me the meaning of today was a good day</t>
   </si>
   <si>
-    <t>Im happy that I have done my homework quickly</t>
-  </si>
-  <si>
-    <t>It was a sad day today because I lost my homework</t>
-  </si>
-  <si>
-    <t>Ive lost my keys</t>
-  </si>
-  <si>
-    <t>This project is a big deal to me</t>
-  </si>
-  <si>
-    <t>Together its so much fun</t>
-  </si>
-  <si>
-    <t>You cant do that</t>
-  </si>
-  <si>
-    <t>Today was a good day</t>
+    <t>tell me the meaning of im having a bad day</t>
   </si>
 </sst>
 </file>
@@ -322,10 +304,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B42" sqref="A39:B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -353,16 +335,16 @@
     </row>
     <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f>CONCATENATE("/audio/audio1 (", ROW() - 1, ").wav")</f>
+        <f t="shared" ref="A3:A9" si="0">CONCATENATE("/audio/audio1 (", ROW() - 1, ").wav")</f>
         <v>/audio/audio1 (2).wav</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f t="shared" ref="A4:A11" si="0">CONCATENATE("/audio/audio1 (", ROW() - 1, ").wav")</f>
+        <f t="shared" si="0"/>
         <v>/audio/audio1 (3).wav</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -375,305 +357,160 @@
         <v>/audio/audio1 (4).wav</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/audio/audio1 (5).wav</v>
+        <f>CONCATENATE("/audio/audio2 (", ROW() - 5, ").wav")</f>
+        <v>/audio/audio2 (1).wav</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/audio/audio1 (6).wav</v>
+        <f t="shared" ref="A7:A9" si="1">CONCATENATE("/audio/audio2 (", ROW() - 5, ").wav")</f>
+        <v>/audio/audio2 (2).wav</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/audio/audio1 (7).wav</v>
+        <f t="shared" si="1"/>
+        <v>/audio/audio2 (3).wav</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/audio/audio1 (8).wav</v>
+        <f t="shared" si="1"/>
+        <v>/audio/audio2 (4).wav</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/audio/audio1 (9).wav</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/audio/audio1 (10).wav</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="str">
-        <f>CONCATENATE("/audio/audio1 (", ROW() - 1, ").wav")</f>
-        <v>/audio/audio1 (11).wav</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="str">
-        <f>CONCATENATE("/audio/audio1 (", ROW() - 1, ").wav")</f>
-        <v>/audio/audio1 (12).wav</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="str">
-        <f t="shared" ref="A14:A16" si="1">CONCATENATE("/audio/audio1 (", ROW() - 1, ").wav")</f>
-        <v>/audio/audio1 (13).wav</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>/audio/audio1 (14).wav</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>/audio/audio1 (15).wav</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="str">
-        <f>CONCATENATE("/audio/audio2 (", ROW() - 16, ").wav")</f>
-        <v>/audio/audio2 (1).wav</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="str">
-        <f t="shared" ref="A18:A31" si="2">CONCATENATE("/audio/audio2 (", ROW() - 16, ").wav")</f>
-        <v>/audio/audio2 (2).wav</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>/audio/audio2 (3).wav</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>/audio/audio2 (4).wav</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>/audio/audio2 (5).wav</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>/audio/audio2 (6).wav</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>/audio/audio2 (7).wav</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>/audio/audio2 (8).wav</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>/audio/audio2 (9).wav</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>/audio/audio2 (10).wav</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>/audio/audio2 (11).wav</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>/audio/audio2 (12).wav</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>/audio/audio2 (13).wav</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>/audio/audio2 (14).wav</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>/audio/audio2 (15).wav</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="str">
-        <f>CONCATENATE("/audio/audio3 (", ROW() - 31, ").wav")</f>
-        <v>/audio/audio3 (1).wav</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="str">
-        <f t="shared" ref="A33:A38" si="3">CONCATENATE("/audio/audio3 (", ROW() - 31, ").wav")</f>
-        <v>/audio/audio3 (2).wav</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>/audio/audio3 (3).wav</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>/audio/audio3 (4).wav</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>/audio/audio3 (5).wav</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>/audio/audio3 (6).wav</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>/audio/audio3 (7).wav</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
@@ -690,10 +527,6 @@
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Audio Files.xlsx
+++ b/Audio Files.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laza9\OneDrive\Documents\raf\DU Projekat 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F044E7-FF2C-4AC7-AA7F-3080D5D465A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11E742C-F83F-4D56-9652-9F994E73B9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="6">
   <si>
     <t>file</t>
   </si>
@@ -306,8 +306,8 @@
   </sheetPr>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -335,7 +335,7 @@
     </row>
     <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A9" si="0">CONCATENATE("/audio/audio1 (", ROW() - 1, ").wav")</f>
+        <f t="shared" ref="A3:A13" si="0">CONCATENATE("/audio/audio1 (", ROW() - 1, ").wav")</f>
         <v>/audio/audio1 (2).wav</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -362,103 +362,183 @@
     </row>
     <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f>CONCATENATE("/audio/audio2 (", ROW() - 5, ").wav")</f>
-        <v>/audio/audio2 (1).wav</v>
+        <f t="shared" si="0"/>
+        <v>/audio/audio1 (5).wav</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f t="shared" ref="A7:A9" si="1">CONCATENATE("/audio/audio2 (", ROW() - 5, ").wav")</f>
-        <v>/audio/audio2 (2).wav</v>
+        <f t="shared" si="0"/>
+        <v>/audio/audio1 (6).wav</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>/audio/audio2 (3).wav</v>
+        <f t="shared" si="0"/>
+        <v>/audio/audio1 (7).wav</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/audio/audio1 (8).wav</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/audio/audio1 (9).wav</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/audio/audio1 (10).wav</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/audio/audio1 (11).wav</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/audio/audio1 (12).wav</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="str">
+        <f>CONCATENATE("/audio/audio2 (", ROW() - 13, ").wav")</f>
+        <v>/audio/audio2 (1).wav</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="str">
+        <f t="shared" ref="A15:A24" si="1">CONCATENATE("/audio/audio2 (", ROW() - 13, ").wav")</f>
+        <v>/audio/audio2 (2).wav</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/audio/audio2 (3).wav</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>/audio/audio2 (4).wav</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/audio/audio2 (5).wav</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/audio/audio2 (6).wav</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/audio/audio2 (7).wav</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/audio/audio2 (8).wav</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/audio/audio2 (9).wav</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/audio/audio2 (10).wav</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/audio/audio2 (11).wav</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1" t="str">
+        <f>CONCATENATE("/audio/audio2 (", ROW() - 13, ").wav")</f>
+        <v>/audio/audio2 (12).wav</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
